--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>981913.2057173941</v>
+        <v>982697.3516554229</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>155.7266806515576</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
-        <v>162.1947822849135</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>76.20164369361589</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -792,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V3" t="n">
-        <v>138.188470775978</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="D5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -972,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>97.83533088294783</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>7.611499780510807</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>158.841334124391</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>155.7266806515576</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1209,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>28.8815202443448</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,20 +1259,20 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>40.39080081164629</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>97.83533088294783</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1461,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>29.66100360787817</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1506,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1698,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.69006202085835</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -1743,7 +1745,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,25 +1888,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1944,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1983,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,23 +2083,23 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>202.2946864288972</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
@@ -2123,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2163,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2208,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>149.1448856640561</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>90.91642501047011</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2324,58 +2326,58 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="F23" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2397,28 +2399,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2457,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>144.2395975293023</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2552,17 +2554,17 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
@@ -2576,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
-        <v>90.38893773807641</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>146.1753613169449</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>52.24924162573027</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,70 +2791,70 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>52.00379634267769</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>49.23175083062949</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W32" t="n">
-        <v>220.2131257424249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,31 +3107,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>144.6060349495346</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3171,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>190.23914516611</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3284,10 +3286,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J35" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>14.86695539771652</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>149.3895849832727</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3424,52 +3426,52 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V38" t="n">
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W38" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3600,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.6846781620519644</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>158.5659129997286</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,11 +3739,11 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="C41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C41" t="n">
-        <v>181.0201173812374</v>
-      </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3825,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>83.07707764447515</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.11569190233641</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3882,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3919,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3937,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>14.83685490770582</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3992,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>159.0801288120801</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="45">
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>13.94347069460057</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4119,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>120.0500723064956</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>447.0863026981896</v>
       </c>
       <c r="D2" t="n">
-        <v>199.2900309704538</v>
+        <v>447.0863026981896</v>
       </c>
       <c r="E2" t="n">
-        <v>199.2900309704538</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="F2" t="n">
-        <v>192.3445302212503</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4337,43 +4339,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.1299698690994</v>
+        <v>513.308066045118</v>
       </c>
       <c r="C3" t="n">
-        <v>166.1299698690994</v>
+        <v>513.308066045118</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>513.308066045118</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>354.0706110396625</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>207.5360530665475</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H3" t="n">
         <v>17.19556020784815</v>
@@ -4410,22 +4412,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4440,19 +4442,19 @@
         <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
+        <v>720.9018483060073</v>
+      </c>
+      <c r="V3" t="n">
+        <v>720.9018483060073</v>
+      </c>
+      <c r="W3" t="n">
+        <v>720.9018483060073</v>
+      </c>
+      <c r="X3" t="n">
+        <v>720.9018483060073</v>
+      </c>
+      <c r="Y3" t="n">
         <v>513.308066045118</v>
-      </c>
-      <c r="V3" t="n">
-        <v>373.7237521299887</v>
-      </c>
-      <c r="W3" t="n">
-        <v>373.7237521299887</v>
-      </c>
-      <c r="X3" t="n">
-        <v>166.1299698690994</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>166.1299698690994</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4510,28 +4512,28 @@
         <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C5" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D5" t="n">
-        <v>431.628992076841</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E5" t="n">
-        <v>431.628992076841</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F5" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4577,7 +4579,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4601,16 +4603,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y5" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129.8105631474831</v>
+        <v>723.2478112046895</v>
       </c>
       <c r="C6" t="n">
-        <v>129.8105631474831</v>
+        <v>723.2478112046895</v>
       </c>
       <c r="D6" t="n">
-        <v>129.8105631474831</v>
+        <v>574.3134015434382</v>
       </c>
       <c r="E6" t="n">
-        <v>129.8105631474831</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="F6" t="n">
-        <v>129.8105631474831</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G6" t="n">
         <v>129.8105631474831</v>
@@ -4647,49 +4649,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>713.2134646893297</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>505.6196824284405</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>298.0259001675511</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
-        <v>298.0259001675511</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y6" t="n">
-        <v>298.0259001675511</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
         <v>133.2380658808762</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2900309704538</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="C8" t="n">
-        <v>38.84423892561444</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="D8" t="n">
-        <v>38.84423892561444</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="E8" t="n">
-        <v>38.84423892561444</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="F8" t="n">
         <v>31.89873817641097</v>
@@ -4805,49 +4807,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>447.0863026981896</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>447.0863026981896</v>
       </c>
       <c r="X8" t="n">
-        <v>406.8838132313431</v>
+        <v>447.0863026981896</v>
       </c>
       <c r="Y8" t="n">
-        <v>199.2900309704538</v>
+        <v>239.4925204373003</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>311.1214714038841</v>
+        <v>405.4634697735316</v>
       </c>
       <c r="C9" t="n">
-        <v>136.6684421227571</v>
+        <v>405.4634697735316</v>
       </c>
       <c r="D9" t="n">
-        <v>136.6684421227571</v>
+        <v>405.4634697735316</v>
       </c>
       <c r="E9" t="n">
-        <v>107.4951893506917</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="F9" t="n">
-        <v>107.4951893506917</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="G9" t="n">
         <v>107.4951893506917</v>
@@ -4884,49 +4886,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>29.03990215807806</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>518.7152536647734</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>311.1214714038841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>311.1214714038841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W9" t="n">
-        <v>311.1214714038841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X9" t="n">
-        <v>311.1214714038841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y9" t="n">
-        <v>311.1214714038841</v>
+        <v>573.6788067935997</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
         <v>16.44142755506243</v>
@@ -4981,31 +4983,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5042,19 +5044,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5063,28 +5065,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C12" t="n">
-        <v>614.4775954922324</v>
+        <v>723.2478112046895</v>
       </c>
       <c r="D12" t="n">
-        <v>465.5431858309811</v>
+        <v>574.3134015434382</v>
       </c>
       <c r="E12" t="n">
-        <v>306.3057308255256</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="F12" t="n">
-        <v>159.7711728524106</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G12" t="n">
-        <v>159.7711728524106</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H12" t="n">
-        <v>46.40203725998988</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5121,16 +5123,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5154,16 +5156,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y12" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
         <v>133.2380658808762</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5288,40 +5290,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="G15" t="n">
         <v>16.44142755506243</v>
@@ -5361,46 +5363,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M15" t="n">
-        <v>435.9652341458732</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>807.2329312674061</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>633.815586718075</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>431.628992076841</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>224.0352098159517</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V15" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W15" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5692,25 +5694,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>710.516763498309</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C20" t="n">
-        <v>710.516763498309</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>710.516763498309</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W20" t="n">
-        <v>710.516763498309</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X20" t="n">
-        <v>710.516763498309</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y20" t="n">
-        <v>710.516763498309</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>813.4057558499735</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>611.2191612087395</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>611.2191612087395</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>376.0670529769968</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W21" t="n">
-        <v>376.0670529769968</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
         <v>19.28114311021272</v>
@@ -5932,28 +5934,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>862.8876260635219</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X24" t="n">
-        <v>862.8876260635219</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y24" t="n">
-        <v>862.8876260635219</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="J25" t="n">
         <v>19.28114311021272</v>
@@ -6166,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>327.4530077769195</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C27" t="n">
-        <v>327.4530077769195</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D27" t="n">
-        <v>178.5185981156682</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>816.40527539251</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>588.181657128899</v>
       </c>
       <c r="V27" t="n">
-        <v>911.2801437674743</v>
+        <v>353.0295488971563</v>
       </c>
       <c r="W27" t="n">
-        <v>911.2801437674743</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X27" t="n">
-        <v>703.4286435619415</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y27" t="n">
-        <v>495.6683447969875</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6421,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>360.2295980564601</v>
+        <v>243.4632136343998</v>
       </c>
       <c r="C30" t="n">
-        <v>360.2295980564601</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="D30" t="n">
-        <v>211.2951883952089</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="E30" t="n">
-        <v>211.2951883952089</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>360.2295980564601</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>360.2295980564601</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X30" t="n">
-        <v>360.2295980564601</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y30" t="n">
-        <v>360.2295980564601</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="31">
@@ -6655,7 +6657,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>655.0361258579891</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>655.0361258579891</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,7 +6788,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
         <v>712.019119383956</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X33" t="n">
-        <v>655.0361258579891</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y33" t="n">
-        <v>655.0361258579891</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="34">
@@ -6880,13 +6882,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F35" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G35" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H35" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I35" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>627.7355178317791</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>627.7355178317791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>478.8011081705279</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>319.5636531650724</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>173.0290951919573</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>34.29826977457284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7023,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>627.7355178317791</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>627.7355178317791</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y36" t="n">
-        <v>627.7355178317791</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
         <v>19.28114311021272</v>
@@ -7117,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7199,22 +7201,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
         <v>19.28114311021272</v>
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>284.725395637266</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C39" t="n">
-        <v>110.272366356139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>110.272366356139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>110.272366356139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>110.272366356139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>110.272366356139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>110.272366356139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.97273721329552</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,10 +7262,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>630.4722220726903</v>
       </c>
       <c r="U39" t="n">
-        <v>660.701031422288</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="V39" t="n">
-        <v>660.701031422288</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="W39" t="n">
-        <v>660.701031422288</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="X39" t="n">
-        <v>660.701031422288</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y39" t="n">
-        <v>452.9407326573341</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="40">
@@ -7354,10 +7356,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
         <v>16.44142755506243</v>
@@ -7433,28 +7435,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y41" t="n">
-        <v>406.8838132313431</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98.12050152333947</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C42" t="n">
-        <v>98.12050152333947</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D42" t="n">
-        <v>98.12050152333947</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E42" t="n">
-        <v>98.12050152333947</v>
+        <v>247.6463582258876</v>
       </c>
       <c r="F42" t="n">
-        <v>98.12050152333947</v>
+        <v>101.1118002527726</v>
       </c>
       <c r="G42" t="n">
-        <v>98.12050152333947</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H42" t="n">
-        <v>98.12050152333947</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I42" t="n">
         <v>17.19556020784815</v>
@@ -7494,10 +7496,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
         <v>548.724319600695</v>
@@ -7512,28 +7514,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>513.308066045118</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W42" t="n">
-        <v>513.308066045118</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>305.7142837842288</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>98.12050152333947</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="C43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="K43" t="n">
         <v>687.5390872628509</v>
@@ -7585,34 +7587,34 @@
         <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.1051990630351</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C44" t="n">
-        <v>236.1051990630351</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D44" t="n">
-        <v>236.1051990630351</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E44" t="n">
-        <v>236.1051990630351</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F44" t="n">
-        <v>236.1051990630351</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G44" t="n">
-        <v>236.1051990630351</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7691,7 +7693,7 @@
         <v>396.792197863116</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.1051990630351</v>
+        <v>189.1984156022267</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N45" t="n">
-        <v>570.0333416264414</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
         <v>570.0333416264414</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>807.9870639201918</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>634.5697193708606</v>
       </c>
       <c r="T45" t="n">
-        <v>345.2979091154422</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="U45" t="n">
-        <v>137.7041268545529</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="V45" t="n">
-        <v>137.7041268545529</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="W45" t="n">
-        <v>137.7041268545529</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="X45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="46">
@@ -7985,16 +7987,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8225,10 +8227,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>435.8640776655532</v>
@@ -8465,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>151.2801117021122</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
@@ -8544,13 +8546,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8699,13 +8701,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>286.7024424905649</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8936,13 +8938,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>243.2069195535496</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10206,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
@@ -10671,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>255.5148970497678</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10908,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11142,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11309,10 +11311,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>279.489774794024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23273,10 +23275,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23303,13 +23305,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>191.9448501240437</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>74.87316810536791</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23349,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>59.73562924353691</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23394,7 +23396,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23434,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>201.9355493385884</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23586,7 +23588,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>17.29344485671506</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>85.46777213178478</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23631,7 +23633,7 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>115.6226874585631</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>170.6702810763838</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23832,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23871,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23932,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>152.3883551917857</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24051,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24096,19 +24098,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>22.53828543978173</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24212,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>370.7373139160822</v>
       </c>
       <c r="F23" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24285,28 +24287,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24345,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>61.5333876741752</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24385,7 +24387,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>46.33425578299912</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24464,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
-        <v>160.9567151697601</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24519,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24573,22 +24575,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>53.98936737787668</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>180.551345523695</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24692,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24731,16 +24733,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>93.06541605070619</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>88.11176633258114</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24895,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,19 +24970,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W32" t="n">
-        <v>129.0278429749881</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2.83903061510415</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25059,10 +25061,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>15.53384003736747</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25163,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25172,10 +25174,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J35" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>97.36848883877994</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,16 +25292,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>56.38340022020478</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25439,25 +25441,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W38" t="n">
-        <v>328.0572133466886</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25488,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.06191316420589232</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>41.59881569509298</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25594,13 +25596,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>351.5828422233929</v>
       </c>
       <c r="C41" t="n">
-        <v>184.2527743897701</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25673,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25713,19 +25715,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>54.26643951873548</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>9.280940949078669</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25770,7 +25772,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25807,10 +25809,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398857</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25880,13 +25882,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>168.4453839490745</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>227.1578098439735</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.21436345804257</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26007,7 +26009,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>85.7229128969819</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>996479.6646257045</v>
+        <v>996479.6646257044</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>402486.0433472607</v>
+        <v>402486.0433472606</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>423947.8947351851</v>
+        <v>423947.8947351852</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>423947.8947351851</v>
+        <v>423947.894735185</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>423947.8947351852</v>
+        <v>423947.8947351851</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>423947.8947351852</v>
+        <v>423947.8947351851</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>423947.8947351851</v>
+        <v>423947.8947351852</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>423947.8947351851</v>
+        <v>423947.8947351852</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>423947.8947351851</v>
+        <v>423947.8947351852</v>
       </c>
     </row>
     <row r="15">
@@ -26314,16 +26316,16 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.0176719629</v>
-      </c>
-      <c r="D2" t="n">
-        <v>472099.0176719627</v>
       </c>
       <c r="E2" t="n">
         <v>181421.2881101714</v>
       </c>
       <c r="F2" t="n">
-        <v>181421.2881101714</v>
+        <v>181421.2881101713</v>
       </c>
       <c r="G2" t="n">
         <v>191084.7734110322</v>
@@ -26335,10 +26337,10 @@
         <v>191084.7734110323</v>
       </c>
       <c r="J2" t="n">
-        <v>191084.7734110323</v>
+        <v>191084.7734110322</v>
       </c>
       <c r="K2" t="n">
-        <v>191084.7734110323</v>
+        <v>191084.7734110322</v>
       </c>
       <c r="L2" t="n">
         <v>191084.7734110322</v>
@@ -26347,13 +26349,13 @@
         <v>191084.7734110322</v>
       </c>
       <c r="N2" t="n">
-        <v>191084.7734110323</v>
+        <v>191084.7734110322</v>
       </c>
       <c r="O2" t="n">
+        <v>181421.2881101713</v>
+      </c>
+      <c r="P2" t="n">
         <v>181421.2881101714</v>
-      </c>
-      <c r="P2" t="n">
-        <v>181421.2881101713</v>
       </c>
     </row>
     <row r="3">
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320447.2707415525</v>
+        <v>320447.2707415524</v>
       </c>
       <c r="C4" t="n">
         <v>320447.2707415523</v>
       </c>
       <c r="D4" t="n">
-        <v>320447.2707415524</v>
+        <v>320447.2707415523</v>
       </c>
       <c r="E4" t="n">
         <v>31909.3965941043</v>
@@ -26430,7 +26432,7 @@
         <v>31909.3965941043</v>
       </c>
       <c r="G4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="H4" t="n">
         <v>33649.84678425771</v>
@@ -26442,7 +26444,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
         <v>33649.84678425771</v>
@@ -26451,10 +26453,10 @@
         <v>33649.84678425771</v>
       </c>
       <c r="N4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>31909.39659410429</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="P4" t="n">
         <v>31909.3965941043</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36654.90540687315</v>
+        <v>36654.90540687319</v>
       </c>
       <c r="C6" t="n">
-        <v>105528.6619885631</v>
+        <v>105528.6619885632</v>
       </c>
       <c r="D6" t="n">
-        <v>105528.6619885628</v>
+        <v>105528.661988563</v>
       </c>
       <c r="E6" t="n">
         <v>137016.4065742196</v>
@@ -26534,28 +26536,28 @@
         <v>137016.4065742196</v>
       </c>
       <c r="G6" t="n">
-        <v>133052.2148888457</v>
+        <v>133052.2148888458</v>
       </c>
       <c r="H6" t="n">
-        <v>142781.2578630129</v>
+        <v>142781.2578630128</v>
       </c>
       <c r="I6" t="n">
         <v>142781.2578630129</v>
       </c>
       <c r="J6" t="n">
-        <v>89008.74697280349</v>
+        <v>89008.74697280343</v>
       </c>
       <c r="K6" t="n">
-        <v>142781.2578630129</v>
+        <v>142781.2578630128</v>
       </c>
       <c r="L6" t="n">
         <v>142781.2578630128</v>
       </c>
       <c r="M6" t="n">
+        <v>142781.2578630129</v>
+      </c>
+      <c r="N6" t="n">
         <v>142781.2578630128</v>
-      </c>
-      <c r="N6" t="n">
-        <v>142781.2578630129</v>
       </c>
       <c r="O6" t="n">
         <v>137016.4065742196</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>209.54621111945</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
+        <v>201.358201303431</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>253.1079552302216</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -27461,19 +27463,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>61.14187346959474</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27512,19 +27514,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>94.61211637344726</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>69.09735635279083</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>88.11912650183328</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>196.2020637443827</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27637,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -27692,22 +27694,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>68.69785276691951</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27749,13 +27751,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>218.329882300464</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27792,7 +27794,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>206.4315576466166</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27895,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27907,16 +27909,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>172.0255778185773</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -27929,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>128.7635602110562</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27977,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -27998,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>165.2918949656581</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>36.78129424836632</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -34705,16 +34707,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O3" t="n">
-        <v>70.5902951096252</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,10 +34947,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
         <v>205.5178444382804</v>
@@ -35185,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
@@ -35264,13 +35266,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
@@ -35419,13 +35421,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35656,13 +35658,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M15" t="n">
-        <v>91.61977832229879</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>113.3808631277495</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37628,13 +37630,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37862,13 +37864,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38017,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38029,10 +38031,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>982697.3516554229</v>
+        <v>913037.0159808963</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14829673.35797655</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>155.7266806515576</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>205.5178444382804</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="F2" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>107.9724622226423</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>76.20164369361589</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>205.5178444382804</v>
+        <v>152.2040830703687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97.83533088294783</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>153.643134920865</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>155.7266806515576</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>86.21539897205307</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>40.39080081164629</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="H11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -1423,10 +1423,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T11" t="n">
-        <v>31.1509994400877</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>97.83533088294783</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>189.1836792563703</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1609,58 +1609,58 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>71.73751301002204</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1931,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.7701852745342</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,73 +2083,73 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>156.0943801586797</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>90.91642501047011</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>11.19305615617957</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2362,25 +2362,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2399,25 +2399,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>75.98437144330406</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -2459,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>144.2395975293023</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2599,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>83.3106286157618</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>146.1753613169449</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2699,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2730,52 +2730,52 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
@@ -2854,7 +2854,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,19 +2873,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>52.24924162573038</v>
       </c>
       <c r="G30" t="n">
-        <v>49.23175083062949</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2933,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="W32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3122,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>52.32885382964328</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>190.23914516611</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3277,64 +3277,64 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>89.66547645067553</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>149.3895849832727</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3465,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>29.82674356615915</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>158.5659129997286</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3702,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
         <v>205.5178444382804</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
     </row>
     <row r="42">
@@ -3830,10 +3830,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>83.07707764447515</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>128.7350472114737</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3921,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>205.5178444382804</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>13.94347069460057</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4179,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>604.3859801240053</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C2" t="n">
-        <v>447.0863026981896</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D2" t="n">
-        <v>447.0863026981896</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E2" t="n">
-        <v>239.4925204373003</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F2" t="n">
-        <v>31.89873817641097</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4354,28 +4354,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U2" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V2" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W2" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X2" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y2" t="n">
-        <v>604.3859801240053</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>513.308066045118</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="C3" t="n">
-        <v>513.308066045118</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="D3" t="n">
-        <v>513.308066045118</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="E3" t="n">
-        <v>354.0706110396625</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F3" t="n">
-        <v>207.5360530665475</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5646958002688</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4421,40 +4421,40 @@
         <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U3" t="n">
-        <v>720.9018483060073</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V3" t="n">
-        <v>720.9018483060073</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W3" t="n">
-        <v>720.9018483060073</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="X3" t="n">
-        <v>720.9018483060073</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="Y3" t="n">
-        <v>513.308066045118</v>
+        <v>238.8736563016672</v>
       </c>
     </row>
     <row r="4">
@@ -4506,19 +4506,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
         <v>38.93586374282289</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>614.4775954922324</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C5" t="n">
-        <v>443.6989813239244</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D5" t="n">
-        <v>443.6989813239244</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E5" t="n">
-        <v>443.6989813239244</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F5" t="n">
-        <v>236.1051990630351</v>
+        <v>182.2529148530233</v>
       </c>
       <c r="G5" t="n">
         <v>28.51141680214578</v>
@@ -4570,13 +4570,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.4775954922324</v>
+        <v>189.1984156022267</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>723.2478112046895</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="C6" t="n">
-        <v>723.2478112046895</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="D6" t="n">
-        <v>574.3134015434382</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="E6" t="n">
-        <v>415.0759465379826</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="F6" t="n">
-        <v>268.5413885648676</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G6" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4655,13 +4655,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P6" t="n">
         <v>822.0713777531216</v>
@@ -4670,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="Y6" t="n">
-        <v>822.0713777531216</v>
+        <v>311.1214714038841</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>239.4925204373003</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C8" t="n">
-        <v>239.4925204373003</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D8" t="n">
-        <v>239.4925204373003</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E8" t="n">
-        <v>239.4925204373003</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F8" t="n">
-        <v>31.89873817641097</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4831,25 +4831,25 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S8" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T8" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U8" t="n">
         <v>604.3859801240053</v>
       </c>
       <c r="V8" t="n">
-        <v>447.0863026981896</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W8" t="n">
-        <v>447.0863026981896</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X8" t="n">
-        <v>447.0863026981896</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y8" t="n">
-        <v>239.4925204373003</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>405.4634697735316</v>
+        <v>103.5276891429948</v>
       </c>
       <c r="C9" t="n">
-        <v>405.4634697735316</v>
+        <v>103.5276891429948</v>
       </c>
       <c r="D9" t="n">
-        <v>405.4634697735316</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>246.2260147680761</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>246.2260147680761</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4898,37 +4898,37 @@
         <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V9" t="n">
-        <v>614.4775954922324</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="Y9" t="n">
-        <v>573.6788067935997</v>
+        <v>103.5276891429948</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C11" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D11" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E11" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F11" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5047,10 +5047,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T11" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U11" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V11" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="W11" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>822.0713777531216</v>
+        <v>322.2134405336329</v>
       </c>
       <c r="C12" t="n">
-        <v>723.2478112046895</v>
+        <v>322.2134405336329</v>
       </c>
       <c r="D12" t="n">
-        <v>574.3134015434382</v>
+        <v>322.2134405336329</v>
       </c>
       <c r="E12" t="n">
-        <v>415.0759465379826</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F12" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
         <v>16.44142755506243</v>
@@ -5123,16 +5123,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>570.0333416264414</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5144,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>529.8072227945222</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>529.8072227945222</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>529.8072227945222</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>322.2134405336329</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0713777531216</v>
+        <v>322.2134405336329</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5229,22 +5229,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5281,19 +5281,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5308,22 +5308,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>137.7041268545529</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="C15" t="n">
-        <v>137.7041268545529</v>
+        <v>237.8379715698713</v>
       </c>
       <c r="D15" t="n">
-        <v>137.7041268545529</v>
+        <v>88.90356190862005</v>
       </c>
       <c r="E15" t="n">
-        <v>137.7041268545529</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>137.7041268545529</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
         <v>16.44142755506243</v>
@@ -5363,13 +5363,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1080096386462</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5381,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U15" t="n">
-        <v>137.7041268545529</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V15" t="n">
-        <v>137.7041268545529</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W15" t="n">
-        <v>137.7041268545529</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X15" t="n">
-        <v>137.7041268545529</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y15" t="n">
-        <v>137.7041268545529</v>
+        <v>412.2910008509983</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
         <v>16.44142755506243</v>
@@ -5460,28 +5460,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>324.1694235828572</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>324.1694235828572</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>324.1694235828572</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F18" t="n">
         <v>19.28114311021272</v>
@@ -5600,19 +5600,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>125.0774898247174</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>492.3847606029253</v>
       </c>
     </row>
     <row r="19">
@@ -5703,16 +5703,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U20" t="n">
-        <v>812.6742080953335</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V20" t="n">
-        <v>569.2254314512334</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W20" t="n">
-        <v>569.2254314512334</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X20" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>325.8866438408374</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5840,16 +5840,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N21" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N21" t="n">
-        <v>781.4136778972854</v>
-      </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>470.5814199598456</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W21" t="n">
-        <v>227.1326433157456</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>325.8866438408374</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
         <v>19.28114311021272</v>
@@ -5931,31 +5931,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.58726043968704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>30.58726043968704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>30.58726043968704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>30.58726043968704</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>30.58726043968704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>30.58726043968704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>30.58726043968704</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>540.5358718529395</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>381.298416847484</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>234.763858874369</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>96.0330334569845</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>96.0330334569845</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6077,7 +6077,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W24" t="n">
-        <v>547.1910343172051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X24" t="n">
-        <v>401.4944711562937</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y24" t="n">
-        <v>193.7341723913397</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
         <v>19.28114311021272</v>
@@ -6168,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6205,10 +6205,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6247,28 +6247,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V26" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V26" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
         <v>262.7299197543128</v>
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>109.5807722530562</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="C27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>816.40527539251</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>588.181657128899</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>353.0295488971563</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W27" t="n">
-        <v>109.5807722530562</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X27" t="n">
-        <v>109.5807722530562</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="Y27" t="n">
-        <v>109.5807722530562</v>
+        <v>104.1874258799295</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6423,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6487,19 +6487,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="W29" t="n">
         <v>19.28114311021272</v>
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>243.4632136343998</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C30" t="n">
-        <v>69.01018435327282</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="D30" t="n">
-        <v>69.01018435327282</v>
+        <v>231.2956098588302</v>
       </c>
       <c r="E30" t="n">
-        <v>69.01018435327282</v>
+        <v>72.05815485337473</v>
       </c>
       <c r="F30" t="n">
-        <v>69.01018435327282</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6545,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>619.4388494194218</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>619.4388494194218</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y30" t="n">
-        <v>411.6785506544679</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="31">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6736,16 +6736,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y32" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="W32" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>210.869396638348</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>210.869396638348</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>210.869396638348</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>210.869396638348</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>210.869396638348</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>72.13857122096351</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6788,43 +6788,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>761.8705608694022</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W33" t="n">
-        <v>761.8705608694022</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X33" t="n">
-        <v>569.7098081763618</v>
+        <v>210.869396638348</v>
       </c>
       <c r="Y33" t="n">
-        <v>361.9495094114078</v>
+        <v>210.869396638348</v>
       </c>
     </row>
     <row r="34">
@@ -6876,19 +6876,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7025,7 +7025,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>873.4859671766205</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>700.0686226272894</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>569.7098081763618</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7113,10 +7113,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R37" t="n">
         <v>19.28114311021272</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>194.4883050441255</v>
+        <v>209.4007545726551</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>209.4007545726551</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>209.4007545726551</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>50.1632995671996</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>50.1632995671996</v>
       </c>
       <c r="G39" t="n">
         <v>20.03527576299844</v>
@@ -7256,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>630.4722220726903</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>402.2486038090794</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V39" t="n">
-        <v>402.2486038090794</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W39" t="n">
-        <v>402.2486038090794</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X39" t="n">
-        <v>402.2486038090794</v>
+        <v>209.4007545726551</v>
       </c>
       <c r="Y39" t="n">
-        <v>194.4883050441255</v>
+        <v>209.4007545726551</v>
       </c>
     </row>
     <row r="40">
@@ -7350,10 +7350,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R40" t="n">
         <v>19.28114311021272</v>
@@ -7390,13 +7390,13 @@
         <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
         <v>16.44142755506243</v>
@@ -7420,13 +7420,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7438,25 +7438,25 @@
         <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T41" t="n">
-        <v>463.0946480769296</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U41" t="n">
-        <v>463.0946480769296</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V41" t="n">
-        <v>463.0946480769296</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W41" t="n">
-        <v>463.0946480769296</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X41" t="n">
-        <v>463.0946480769296</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="Y41" t="n">
-        <v>255.5008658160403</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>406.8838132313431</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="C42" t="n">
-        <v>406.8838132313431</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D42" t="n">
-        <v>406.8838132313431</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E42" t="n">
-        <v>247.6463582258876</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>101.1118002527726</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N42" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O42" t="n">
-        <v>752.1869855945927</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V42" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>175.6788825605179</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>710.0335234506114</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C44" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7651,49 +7651,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
-        <v>396.792197863116</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X44" t="n">
-        <v>396.792197863116</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y44" t="n">
-        <v>189.1984156022267</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>163.1080096386462</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5706756325438</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>807.9870639201918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>634.5697193708606</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>432.3831247296267</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>224.7893424687375</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>224.7893424687375</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>224.7893424687375</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="H46" t="n">
         <v>16.44142755506243</v>
@@ -7827,31 +7827,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R46" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S46" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -7996,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8069,7 +8069,7 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8303,16 +8303,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>201.9320071929585</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8546,13 +8546,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>143.091025904242</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,13 +8695,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N12" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9011,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>160.0786444523452</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9248,13 +9248,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11068,16 +11068,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11311,10 +11311,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>160.0786444523452</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>394.1424372895921</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>191.9448501240437</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23339,10 +23339,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>74.87316810536791</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23393,7 +23393,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>36.75770282460456</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23402,7 +23402,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23548,7 +23548,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23576,19 +23576,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>85.9075674453789</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>17.29344485671506</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23639,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>284.3390338194077</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23819,10 +23819,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0.8748951808667584</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23861,19 +23861,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>149.5179749360441</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24050,10 +24050,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>16.61411882963608</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24098,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>141.8841621389552</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24171,7 +24171,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24214,10 +24214,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>370.7373139160822</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24250,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24287,25 +24287,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>13.41226140811102</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24347,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>61.5333876741752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24387,7 +24387,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>46.33425578299912</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24408,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>89.39787037255394</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24542,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,13 +24572,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>53.98936737787668</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24618,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24727,13 +24727,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
@@ -24742,7 +24742,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>254.830481723707</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24761,19 +24761,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>92.8199707676535</v>
       </c>
       <c r="G30" t="n">
-        <v>88.11176633258114</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24821,10 +24821,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24925,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24976,16 +24976,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25010,10 +25010,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>59.90659040685318</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>15.53384003736747</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25116,13 +25116,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>10.49235770196761</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>56.38340022020478</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25353,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25396,16 +25396,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25438,7 +25438,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25450,16 +25450,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,19 +25472,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>107.5167735970515</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>41.59881569509298</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25590,13 +25590,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.5828422233929</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
         <v>17.57800512585095</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>355.0869392159659</v>
       </c>
     </row>
     <row r="42">
@@ -25718,10 +25718,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>54.26643951873548</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25769,13 +25769,13 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>77.03793799200375</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25809,10 +25809,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25827,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.32518834398857</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25882,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>168.4453839490745</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25924,7 +25924,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W44" t="n">
         <v>143.7231242791326</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.21436345804257</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26040,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>115.202248173766</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26067,10 +26067,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>996479.6646257044</v>
+        <v>996479.6646257045</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402486.0433472607</v>
+        <v>402486.0433472608</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>423947.8947351852</v>
+        <v>423947.8947351851</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>423947.894735185</v>
+        <v>423947.8947351851</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>423947.8947351852</v>
+        <v>423947.8947351851</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>423947.8947351852</v>
+        <v>423947.8947351851</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>423947.8947351852</v>
+        <v>423947.894735185</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>402486.0433472607</v>
+        <v>402486.0433472606</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402486.0433472608</v>
+        <v>402486.0433472607</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719631</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719629</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>472099.017671963</v>
-      </c>
-      <c r="D2" t="n">
-        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
         <v>181421.2881101714</v>
       </c>
       <c r="F2" t="n">
-        <v>181421.2881101713</v>
+        <v>181421.2881101714</v>
       </c>
       <c r="G2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="H2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="I2" t="n">
         <v>191084.7734110322</v>
-      </c>
-      <c r="H2" t="n">
-        <v>191084.7734110322</v>
-      </c>
-      <c r="I2" t="n">
-        <v>191084.7734110323</v>
       </c>
       <c r="J2" t="n">
         <v>191084.7734110322</v>
@@ -26346,16 +26346,16 @@
         <v>191084.7734110322</v>
       </c>
       <c r="M2" t="n">
-        <v>191084.7734110322</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="N2" t="n">
         <v>191084.7734110322</v>
       </c>
       <c r="O2" t="n">
+        <v>181421.2881101714</v>
+      </c>
+      <c r="P2" t="n">
         <v>181421.2881101713</v>
-      </c>
-      <c r="P2" t="n">
-        <v>181421.2881101714</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320447.2707415524</v>
+        <v>320447.2707415523</v>
       </c>
       <c r="C4" t="n">
         <v>320447.2707415523</v>
@@ -26447,7 +26447,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
-        <v>33649.84678425771</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="M4" t="n">
         <v>33649.84678425771</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36654.90540687319</v>
+        <v>36654.90540687348</v>
       </c>
       <c r="C6" t="n">
+        <v>105528.661988563</v>
+      </c>
+      <c r="D6" t="n">
         <v>105528.6619885632</v>
       </c>
-      <c r="D6" t="n">
-        <v>105528.661988563</v>
-      </c>
       <c r="E6" t="n">
-        <v>137016.4065742196</v>
+        <v>124378.2444193591</v>
       </c>
       <c r="F6" t="n">
-        <v>137016.4065742196</v>
+        <v>124378.2444193592</v>
       </c>
       <c r="G6" t="n">
-        <v>133052.2148888458</v>
+        <v>120834.2042688054</v>
       </c>
       <c r="H6" t="n">
-        <v>142781.2578630128</v>
+        <v>130563.2472429724</v>
       </c>
       <c r="I6" t="n">
-        <v>142781.2578630129</v>
+        <v>130563.2472429724</v>
       </c>
       <c r="J6" t="n">
-        <v>89008.74697280343</v>
+        <v>76790.73635276296</v>
       </c>
       <c r="K6" t="n">
-        <v>142781.2578630128</v>
+        <v>130563.2472429724</v>
       </c>
       <c r="L6" t="n">
-        <v>142781.2578630128</v>
+        <v>130563.2472429724</v>
       </c>
       <c r="M6" t="n">
-        <v>142781.2578630129</v>
+        <v>130563.2472429724</v>
       </c>
       <c r="N6" t="n">
-        <v>142781.2578630128</v>
+        <v>130563.2472429724</v>
       </c>
       <c r="O6" t="n">
-        <v>137016.4065742196</v>
+        <v>124378.2444193591</v>
       </c>
       <c r="P6" t="n">
-        <v>137016.4065742196</v>
+        <v>124378.2444193591</v>
       </c>
     </row>
   </sheetData>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>209.54621111945</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>189.3802980198975</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,19 +27460,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>64.73603676567345</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>61.14187346959474</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27481,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>69.09735635279083</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27593,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>175.4015535970057</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>196.2020637443827</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>263.0986544447663</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27660,31 +27660,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.69785276691951</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4.001945534535963</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27794,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183328</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,7 +27867,7 @@
         <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>256.2226087030549</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>172.0255778185773</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,31 +27931,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>61.22966659258569</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2918949656581</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>36.78129424836632</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28064,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>117.0281136687963</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34716,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N5" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35023,16 +35023,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0.494781459797586</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N12" t="n">
-        <v>21.52426467247106</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35898,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35968,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37551,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38031,10 +38031,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
